--- a/InputDisplacingAbatement/Make_data/ES.xlsx
+++ b/InputDisplacingAbatement/Make_data/ES.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="mu" sheetId="1" r:id="rId1"/>
-    <sheet name="sigma" sheetId="2" r:id="rId2"/>
+    <sheet name="q" sheetId="3" r:id="rId2"/>
+    <sheet name="sigma" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
   <si>
     <t>n</t>
   </si>
@@ -61,6 +62,9 @@
   </si>
   <si>
     <t>sigma</t>
+  </si>
+  <si>
+    <t>q</t>
   </si>
 </sst>
 </file>
@@ -381,7 +385,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -462,7 +466,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,6 +476,45 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>0.375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="A1:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
     </row>
